--- a/public/2024-cities-social-insurance-standards.xlsx
+++ b/public/2024-cities-social-insurance-standards.xlsx
@@ -1,58 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="2024社保标准" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -150,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -220,16 +279,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,747 +414,794 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="8.83203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>city_name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>year</v>
-      </c>
-      <c r="C1" t="str">
-        <v>base_min</v>
-      </c>
-      <c r="D1" t="str">
-        <v>base_max</v>
-      </c>
-      <c r="E1" t="str">
-        <v>rate</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>city_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>base_min</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>base_max</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rate</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>北京</v>
-      </c>
-      <c r="B2" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C2" t="n">
         <v>6679</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" t="n">
         <v>33891</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" t="n">
         <v>0.315</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>上海</v>
-      </c>
-      <c r="B3" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C3" t="n">
         <v>7310</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" t="n">
         <v>36549</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" t="n">
         <v>0.335</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>广州</v>
-      </c>
-      <c r="B4" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C4" t="n">
         <v>5284</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" t="n">
         <v>26421</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" t="n">
         <v>0.314</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>深圳</v>
-      </c>
-      <c r="B5" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C5" t="str">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C5" t="n">
         <v>5284</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" t="n">
         <v>26421</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" t="n">
         <v>0.314</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>天津</v>
-      </c>
-      <c r="B6" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C6" t="n">
         <v>4751</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" t="n">
         <v>23757</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" t="n">
         <v>0.312</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>重庆</v>
-      </c>
-      <c r="B7" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C7" t="str">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C7" t="n">
         <v>4117</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" t="n">
         <v>20587</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" t="n">
         <v>0.305</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>成都</v>
-      </c>
-      <c r="B8" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C8" t="str">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C8" t="n">
         <v>4246</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" t="n">
         <v>21228</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" t="n">
         <v>0.308</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>杭州</v>
-      </c>
-      <c r="B9" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C9" t="str">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C9" t="n">
         <v>4462</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" t="n">
         <v>24060</v>
       </c>
-      <c r="E9" t="str">
-        <v>0.310</v>
+      <c r="E9" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>南京</v>
-      </c>
-      <c r="B10" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C10" t="str">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C10" t="n">
         <v>4494</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" t="n">
         <v>24000</v>
       </c>
-      <c r="E10" t="str">
-        <v>0.310</v>
+      <c r="E10" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>武汉</v>
-      </c>
-      <c r="B11" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C11" t="str">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C11" t="n">
         <v>4224</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" t="n">
         <v>21120</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" t="n">
         <v>0.308</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>西安</v>
-      </c>
-      <c r="B12" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C12" t="str">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C12" t="n">
         <v>4155</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" t="n">
         <v>20775</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" t="n">
         <v>0.307</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>苏州</v>
-      </c>
-      <c r="B13" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C13" t="str">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C13" t="n">
         <v>4494</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" t="n">
         <v>24060</v>
       </c>
-      <c r="E13" t="str">
-        <v>0.310</v>
+      <c r="E13" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
-        <v>青岛</v>
-      </c>
-      <c r="B14" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C14" t="str">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>无锡</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C14" t="n">
         <v>4242</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" t="n">
         <v>21210</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" t="n">
         <v>0.308</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>郑州</v>
-      </c>
-      <c r="B15" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C15" t="str">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>宁波</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C15" t="n">
         <v>3897</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" t="n">
         <v>19485</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" t="n">
         <v>0.304</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>长沙</v>
-      </c>
-      <c r="B16" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C16" t="str">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C16" t="n">
         <v>4072</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" t="n">
         <v>20360</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" t="n">
         <v>0.306</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
-        <v>东莞</v>
-      </c>
-      <c r="B17" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C17" t="str">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C17" t="n">
         <v>4591</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" t="n">
         <v>22955</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" t="n">
         <v>0.311</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>佛山</v>
-      </c>
-      <c r="B18" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C18" t="str">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>佛山</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C18" t="n">
         <v>4769</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" t="n">
         <v>23845</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" t="n">
         <v>0.312</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>无锡</v>
-      </c>
-      <c r="B19" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C19" t="str">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>东莞</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C19" t="n">
         <v>4494</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" t="n">
         <v>24060</v>
       </c>
-      <c r="E19" t="str">
-        <v>0.310</v>
+      <c r="E19" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
-        <v>合肥</v>
-      </c>
-      <c r="B20" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C20" t="str">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C20" t="n">
         <v>4107</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" t="n">
         <v>20535</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" t="n">
         <v>0.305</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>福州</v>
-      </c>
-      <c r="B21" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C21" t="str">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C21" t="n">
         <v>4262</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" t="n">
         <v>21310</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" t="n">
         <v>0.308</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>厦门</v>
-      </c>
-      <c r="B22" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C22" t="str">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C22" t="n">
         <v>4244</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" t="n">
         <v>21220</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" t="n">
         <v>0.308</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>济南</v>
-      </c>
-      <c r="B23" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C23" t="str">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C23" t="n">
         <v>4259</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" t="n">
         <v>21295</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" t="n">
         <v>0.308</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
-        <v>大连</v>
-      </c>
-      <c r="B24" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C24" t="str">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C24" t="n">
         <v>4107</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" t="n">
         <v>20535</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" t="n">
         <v>0.305</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v>宁波</v>
-      </c>
-      <c r="B25" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C25" t="str">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>福州</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C25" t="n">
         <v>4591</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" t="n">
         <v>22955</v>
       </c>
-      <c r="E25" t="str">
+      <c r="E25" t="n">
         <v>0.311</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
-        <v>昆明</v>
-      </c>
-      <c r="B26" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C26" t="str">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>昆明</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C26" t="n">
         <v>4175</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" t="n">
         <v>20875</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" t="n">
         <v>0.307</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
-        <v>石家庄</v>
-      </c>
-      <c r="B27" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C27" t="str">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C27" t="n">
         <v>3945</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" t="n">
         <v>19725</v>
       </c>
-      <c r="E27" t="str">
+      <c r="E27" t="n">
         <v>0.304</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
-        <v>南昌</v>
-      </c>
-      <c r="B28" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C28" t="str">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C28" t="n">
         <v>4092</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" t="n">
         <v>20460</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" t="n">
         <v>0.305</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
-        <v>贵阳</v>
-      </c>
-      <c r="B29" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C29" t="str">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C29" t="n">
         <v>4066</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" t="n">
         <v>20330</v>
       </c>
-      <c r="E29" t="str">
+      <c r="E29" t="n">
         <v>0.306</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
-        <v>南宁</v>
-      </c>
-      <c r="B30" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C30" t="str">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C30" t="n">
         <v>3985</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" t="n">
         <v>19925</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E30" t="n">
         <v>0.304</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
-        <v>太原</v>
-      </c>
-      <c r="B31" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C31" t="str">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>呼和浩特</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C31" t="n">
         <v>3865</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" t="n">
         <v>19325</v>
       </c>
-      <c r="E31" t="str">
+      <c r="E31" t="n">
         <v>0.303</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
-        <v>长春</v>
-      </c>
-      <c r="B32" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C32" t="str">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>长春</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C32" t="n">
         <v>3897</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D32" t="n">
         <v>19485</v>
       </c>
-      <c r="E32" t="str">
+      <c r="E32" t="n">
         <v>0.304</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
-        <v>哈尔滨</v>
-      </c>
-      <c r="B33" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C33" t="str">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C33" t="n">
         <v>3778</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" t="n">
         <v>18890</v>
       </c>
-      <c r="E33" t="str">
+      <c r="E33" t="n">
         <v>0.301</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
-        <v>沈阳</v>
-      </c>
-      <c r="B34" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C34" t="str">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>海口</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C34" t="n">
         <v>4006</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" t="n">
         <v>20030</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" t="n">
         <v>0.304</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
-        <v>呼和浩特</v>
-      </c>
-      <c r="B35" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C35" t="str">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>贵阳</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C35" t="n">
         <v>3985</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D35" t="n">
         <v>19925</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E35" t="n">
         <v>0.304</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
-        <v>海口</v>
-      </c>
-      <c r="B36" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C36" t="str">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>兰州</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C36" t="n">
         <v>4242</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D36" t="n">
         <v>21210</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E36" t="n">
         <v>0.308</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
-        <v>银川</v>
-      </c>
-      <c r="B37" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C37" t="str">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>银川</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C37" t="n">
         <v>4056</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D37" t="n">
         <v>20280</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" t="n">
         <v>0.305</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
-        <v>西宁</v>
-      </c>
-      <c r="B38" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C38" t="str">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>西宁</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C38" t="n">
         <v>4026</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D38" t="n">
         <v>20130</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E38" t="n">
         <v>0.304</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
-        <v>乌鲁木齐</v>
-      </c>
-      <c r="B39" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C39" t="str">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>拉萨</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C39" t="n">
         <v>4095</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D39" t="n">
         <v>20475</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" t="n">
         <v>0.305</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
-        <v>兰州</v>
-      </c>
-      <c r="B40" t="str">
-        <v>2024</v>
-      </c>
-      <c r="C40" t="str">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>乌鲁木齐</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C40" t="n">
         <v>3897</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D40" t="n">
         <v>19485</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E40" t="n">
         <v>0.304</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E40"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>